--- a/other/outputs/table4_formatted.xlsx
+++ b/other/outputs/table4_formatted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/UAF Semesters/Thesis/Current Draft/Chapter 1/submissions/new submission/v3_draft_TAFS_Meyer/v3_submission_format/kenai_juv_salmon_growth_analyses/other/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82209CF0-8198-2D45-8C7C-64E1018E6900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B56256-9CFE-B747-A942-79E7665F7D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14200" xr2:uid="{AFE24600-5198-614B-BE76-B1F4616DB9BC}"/>
   </bookViews>
@@ -58,33 +58,9 @@
     <t>2060-2069</t>
   </si>
   <si>
-    <t>-10.24 ± 3.44%</t>
-  </si>
-  <si>
     <t>Mean ± SD</t>
   </si>
   <si>
-    <t>-3.38 ± 0.77%</t>
-  </si>
-  <si>
-    <t>-2.43 ± 0.87%</t>
-  </si>
-  <si>
-    <t>-8.73 ± 3.73%</t>
-  </si>
-  <si>
-    <t>-0.96 ± 0.32%</t>
-  </si>
-  <si>
-    <t>-2.8 ± 1.20%</t>
-  </si>
-  <si>
-    <t>-3.18 ± 2.88%</t>
-  </si>
-  <si>
-    <t>-8.96 ± 7.36%</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -98,6 +74,30 @@
   </si>
   <si>
     <t>Main stem (Kenai River)</t>
+  </si>
+  <si>
+    <t>-3.88 ± 1.01%</t>
+  </si>
+  <si>
+    <t>-11.52 ± 3.98%</t>
+  </si>
+  <si>
+    <t>-2.79 ± 2.84%</t>
+  </si>
+  <si>
+    <t>-7.99 ± 7.23%</t>
+  </si>
+  <si>
+    <t>-1.13 ± 0.37%</t>
+  </si>
+  <si>
+    <t>-3.29 ± 1.35%</t>
+  </si>
+  <si>
+    <t>-0.3 ± 2.56%</t>
+  </si>
+  <si>
+    <t>-3.47 ± 6.57%</t>
   </si>
 </sst>
 </file>
@@ -142,23 +142,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -173,17 +162,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -191,38 +180,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F79A05-1038-B24C-86D9-4DDECB107F5B}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -553,189 +525,187 @@
     <col min="5" max="6" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5">
+        <v>42</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="6">
+        <v>-2.1700000000000001E-2</v>
+      </c>
+      <c r="F2" s="6">
+        <v>-6.6400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5">
+        <v>42</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="6">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="F3" s="6">
+        <v>-0.2087</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>42</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>-7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5">
+        <v>42</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1.8599999999999998E-2</v>
+      </c>
+      <c r="F5" s="6">
+        <v>-0.22819999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5">
+        <v>24</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="E6" s="6">
+        <v>-5.5999999999999999E-3</v>
+      </c>
+      <c r="F6" s="6">
+        <v>-1.89E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5">
+        <v>24</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="6">
+        <v>-1.2699999999999999E-2</v>
+      </c>
+      <c r="F7" s="6">
+        <v>-6.3500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6">
-        <v>18</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="8">
-        <v>-2.1700000000000001E-2</v>
-      </c>
-      <c r="F2" s="8">
-        <v>-5.0999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="6" t="s">
+      <c r="C8" s="5">
+        <v>24</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3.85E-2</v>
+      </c>
+      <c r="F8" s="6">
+        <v>-3.9800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6">
-        <v>18</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="8">
-        <v>-5.2999999999999999E-2</v>
-      </c>
-      <c r="F3" s="8">
-        <v>-0.16969999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="6">
-        <v>36</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="8">
-        <v>1.5800000000000002E-2</v>
-      </c>
-      <c r="F4" s="8">
-        <v>-7.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="6">
-        <v>36</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="8">
-        <v>1.8599999999999998E-2</v>
-      </c>
-      <c r="F5" s="8">
-        <v>-0.22819999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6">
-        <v>12</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="8">
-        <v>-5.5999999999999999E-3</v>
-      </c>
-      <c r="F6" s="8">
-        <v>-1.55E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="6">
-        <v>12</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="8">
-        <v>-1.2699999999999999E-2</v>
-      </c>
-      <c r="F7" s="8">
-        <v>-5.3699999999999998E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="C9" s="7">
+        <v>24</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6">
-        <v>6</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="8">
-        <v>-1.3599999999999999E-2</v>
-      </c>
-      <c r="F8" s="8">
-        <v>-3.5200000000000002E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="11">
-        <v>6</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="13">
-        <v>-4.2099999999999999E-2</v>
-      </c>
-      <c r="F9" s="13">
-        <v>-0.14299999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="2" t="s">
-        <v>16</v>
+      <c r="E9" s="8">
+        <v>5.11E-2</v>
+      </c>
+      <c r="F9" s="8">
+        <v>-0.15459999999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
